--- a/exam-com/src/main/schema/コード定義.xlsx
+++ b/exam-com/src/main/schema/コード定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\emarf\emarf-com\src\main\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\exam-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC65785-0043-40CF-B5F0-6ABBDA41C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C3A9F9-8787-43D2-8E6B-9EB74AD7A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>コード名称</t>
     <rPh sb="3" eb="5">
@@ -367,6 +367,13 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,16 +546,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,15 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,31 +968,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20:L22"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="25.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1025,20 +1020,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="6.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A34" si="0">ROW()-2</f>
         <v>1</v>
@@ -1046,7 +1041,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f t="shared" ref="C3" si="1">LEN(B3)</f>
         <v>7</v>
       </c>
@@ -1073,7 +1068,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('check_f', '0', 'なし', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1081,7 +1076,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" ref="C4" si="2">LEN(B4)</f>
         <v>7</v>
       </c>
@@ -1106,7 +1101,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('check_f', '1', 'あり', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1114,7 +1109,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" ref="C5:C18" si="5">LEN(B5)</f>
         <v>8</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '1', '一つ目', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1147,7 +1142,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '2', '二つ目', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1180,7 +1175,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1205,7 +1200,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '3', '三つ目', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1213,7 +1208,7 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1238,7 +1233,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '01', '一番目', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1246,7 +1241,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1271,7 +1266,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '02', '二番目', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1279,7 +1274,7 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '03', '三番目', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1312,7 +1307,7 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '04', '四番目', 4, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1345,7 +1340,7 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1370,7 +1365,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '05', '五番目', 5, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1378,7 +1373,7 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '06', '六番目', 6, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1411,7 +1406,7 @@
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '07', '七番目', 7, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1444,7 +1439,7 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '08', '八番目', 8, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1477,7 +1472,7 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '09', '九番目', 9, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1510,7 +1505,7 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '10', '十番目', 10, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1543,7 +1538,7 @@
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1568,7 +1563,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('delete_f', '0', '未削除', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1576,7 +1571,7 @@
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:C20" si="6">LEN(B19)</f>
         <v>8</v>
       </c>
@@ -1601,7 +1596,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('delete_f', '1', '削除', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1609,7 +1604,7 @@
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '0', 'なし', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1642,7 +1637,7 @@
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f t="shared" ref="C21:C22" si="7">LEN(B21)</f>
         <v>9</v>
       </c>
@@ -1667,7 +1662,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '1', '閲覧', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1675,56 +1670,65 @@
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="16">
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16"/>
       <c r="K22" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '2', '更新', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '2', '出力', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23" si="8">LEN(B23)</f>
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
       <c r="K23" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K23" si="9">IF(OR(B23="",B23=B22),"","INSERT INTO m_code(code_nm, code_mei, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B23&amp;"', '"&amp;D23&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
         <v/>
       </c>
       <c r="L23" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" ref="L23" si="10">IF(E23="","","INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B23&amp;"', '"&amp;E23&amp;"', '"&amp;F23&amp;"', "&amp;G23&amp;", '"&amp;H23&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
+        <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '3', '更新', 4, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1738,7 +1742,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1752,7 +1756,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1766,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1780,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1794,7 +1798,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1808,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1822,7 +1826,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1836,7 +1840,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1850,7 +1854,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1864,7 +1868,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1878,9 +1882,9 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
-        <f t="shared" ref="A35:A66" si="8">ROW()-2</f>
+        <f t="shared" ref="A35:A66" si="11">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="K35" s="6" t="str">
@@ -1892,9 +1896,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="K36" s="6" t="str">
@@ -1906,9 +1910,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="K37" s="6" t="str">
@@ -1920,9 +1924,9 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="K38" s="6" t="str">
@@ -1934,9 +1938,9 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="K39" s="6" t="str">
@@ -1948,9 +1952,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="K40" s="6" t="str">
@@ -1962,9 +1966,9 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="K41" s="6" t="str">
@@ -1976,9 +1980,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="K42" s="6" t="str">
@@ -1990,9 +1994,9 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="K43" s="6" t="str">
@@ -2004,9 +2008,9 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="K44" s="6" t="str">
@@ -2018,9 +2022,9 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="K45" s="6" t="str">
@@ -2032,9 +2036,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="K46" s="6" t="str">
@@ -2046,9 +2050,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="K47" s="6" t="str">
@@ -2060,9 +2064,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="K48" s="6" t="str">
@@ -2074,9 +2078,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="K49" s="6" t="str">
@@ -2088,9 +2092,9 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="K50" s="6" t="str">
@@ -2102,9 +2106,9 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="K51" s="6" t="str">
@@ -2116,9 +2120,9 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="K52" s="6" t="str">
@@ -2130,9 +2134,9 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="K53" s="6" t="str">
@@ -2144,9 +2148,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="K54" s="6" t="str">
@@ -2158,9 +2162,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="K55" s="6" t="str">
@@ -2172,9 +2176,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="K56" s="6" t="str">
@@ -2186,9 +2190,9 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="K57" s="6" t="str">
@@ -2200,9 +2204,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="K58" s="6" t="str">
@@ -2214,9 +2218,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="K59" s="6" t="str">
@@ -2228,9 +2232,9 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="K60" s="6" t="str">
@@ -2242,9 +2246,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="K61" s="6" t="str">
@@ -2256,9 +2260,9 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="K62" s="6" t="str">
@@ -2270,9 +2274,9 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="K63" s="6" t="str">
@@ -2284,9 +2288,9 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="K64" s="6" t="str">
@@ -2298,9 +2302,9 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="K65" s="6" t="str">
@@ -2312,9 +2316,9 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K66" s="6" t="str">
@@ -2326,9 +2330,9 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A120" si="9">ROW()-2</f>
+        <f t="shared" ref="A67:A120" si="12">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="K67" s="6" t="str">
@@ -2340,191 +2344,191 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="K68" s="6" t="str">
-        <f t="shared" ref="K68:K120" si="10">IF(OR(B68="",B68=B67),"","INSERT INTO m_code(code_nm, code_mei, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
+        <f t="shared" ref="K68:K120" si="13">IF(OR(B68="",B68=B67),"","INSERT INTO m_code(code_nm, code_mei, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
         <v/>
       </c>
       <c r="L68" s="6" t="str">
-        <f t="shared" ref="L68:L120" si="11">IF(E68="","","INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" ref="L68:L120" si="14">IF(E68="","","INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="K69" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L69" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="K70" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L70" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="K71" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L71" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="K72" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L72" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="K73" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L73" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="K74" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L74" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="K75" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L75" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="K76" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L76" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="B81" s="3"/>
@@ -2535,569 +2539,569 @@
       <c r="H81" s="4"/>
       <c r="I81" s="3"/>
       <c r="K81" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="B82" s="3"/>
       <c r="D82" s="3"/>
       <c r="K82" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="B83" s="3"/>
       <c r="D83" s="3"/>
       <c r="K83" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="B84" s="3"/>
       <c r="D84" s="3"/>
       <c r="K84" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="B85" s="3"/>
       <c r="D85" s="3"/>
       <c r="K85" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="B86" s="3"/>
       <c r="D86" s="3"/>
       <c r="K86" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="B87" s="3"/>
       <c r="D87" s="3"/>
       <c r="K87" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L87" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="K88" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L88" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="K89" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L89" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="K90" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L90" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="K91" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L91" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="K92" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L92" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="K93" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="K94" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="K95" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="K96" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="K102" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L102" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>101</v>
       </c>
       <c r="K103" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L103" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="K104" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L104" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>103</v>
       </c>
       <c r="K105" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L105" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="K106" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L106" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="K107" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L107" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="K108" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L108" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="K109" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L109" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="K110" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L110" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="K111" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L111" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="K112" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L112" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="K113" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L113" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="K114" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L114" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>113</v>
       </c>
       <c r="K115" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L115" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="K116" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L116" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="K117" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L117" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="K118" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L118" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="K119" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L119" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>118</v>
       </c>
       <c r="K120" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L120" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>

--- a/exam-com/src/main/schema/コード定義.xlsx
+++ b/exam-com/src/main/schema/コード定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\exam-com\src\main\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\exam-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C3A9F9-8787-43D2-8E6B-9EB74AD7A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23343D4A-07FB-41C2-9AF6-A90295B25F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>コード名称</t>
     <rPh sb="3" eb="5">
@@ -373,6 +373,17 @@
     <t>出力</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,77 +579,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -668,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -708,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -814,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,24 +909,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.59765625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="25.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="6.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
@@ -1033,7 +974,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A34" si="0">ROW()-2</f>
         <v>1</v>
@@ -1068,7 +1009,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('check_f', '0', 'なし', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1101,7 +1042,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('check_f', '1', 'あり', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1134,7 +1075,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '1', '一つ目', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1167,7 +1108,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '2', '二つ目', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1200,7 +1141,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('radio_kb', '3', '三つ目', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1233,7 +1174,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '01', '一番目', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1266,7 +1207,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '02', '二番目', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1299,7 +1240,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '03', '三番目', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1332,7 +1273,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '04', '四番目', 4, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1365,7 +1306,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '05', '五番目', 5, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1398,7 +1339,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '06', '六番目', 6, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1431,7 +1372,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '07', '七番目', 7, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1464,7 +1405,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '08', '八番目', 8, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1497,7 +1438,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '09', '九番目', 9, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1530,7 +1471,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('pulldown_kb', '10', '十番目', 10, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1563,7 +1504,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('delete_f', '0', '未削除', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1596,7 +1537,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('delete_f', '1', '削除', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1629,7 +1570,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '0', 'なし', 1, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1662,7 +1603,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '1', '閲覧', 2, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1695,7 +1636,7 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '2', '出力', 3, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1728,21 +1669,40 @@
         <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '3', '更新', 4, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" ref="C24" si="11">LEN(B24)</f>
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="K24" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('kengen_kb', '4', '追加', 5, '', SYSDATE(), 'initdata', SYSDATE(), 'initdata');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1756,7 +1716,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1770,7 +1730,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1784,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1798,7 +1758,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1812,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1826,7 +1786,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1840,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1854,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1868,7 +1828,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1882,9 +1842,9 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
-        <f t="shared" ref="A35:A66" si="11">ROW()-2</f>
+        <f t="shared" ref="A35:A66" si="12">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="K35" s="6" t="str">
@@ -1896,9 +1856,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="K36" s="6" t="str">
@@ -1910,9 +1870,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="K37" s="6" t="str">
@@ -1924,9 +1884,9 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="K38" s="6" t="str">
@@ -1938,9 +1898,9 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="K39" s="6" t="str">
@@ -1952,9 +1912,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="K40" s="6" t="str">
@@ -1966,9 +1926,9 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="K41" s="6" t="str">
@@ -1980,9 +1940,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="K42" s="6" t="str">
@@ -1994,9 +1954,9 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="K43" s="6" t="str">
@@ -2008,9 +1968,9 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="K44" s="6" t="str">
@@ -2022,9 +1982,9 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="K45" s="6" t="str">
@@ -2036,9 +1996,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="K46" s="6" t="str">
@@ -2050,9 +2010,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="K47" s="6" t="str">
@@ -2064,9 +2024,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="K48" s="6" t="str">
@@ -2078,9 +2038,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="K49" s="6" t="str">
@@ -2092,9 +2052,9 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="K50" s="6" t="str">
@@ -2106,9 +2066,9 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="K51" s="6" t="str">
@@ -2120,9 +2080,9 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="K52" s="6" t="str">
@@ -2134,9 +2094,9 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="K53" s="6" t="str">
@@ -2148,9 +2108,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="K54" s="6" t="str">
@@ -2162,9 +2122,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="K55" s="6" t="str">
@@ -2176,9 +2136,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="K56" s="6" t="str">
@@ -2190,9 +2150,9 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="K57" s="6" t="str">
@@ -2204,9 +2164,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="K58" s="6" t="str">
@@ -2218,9 +2178,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="K59" s="6" t="str">
@@ -2232,9 +2192,9 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="K60" s="6" t="str">
@@ -2246,9 +2206,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="K61" s="6" t="str">
@@ -2260,9 +2220,9 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="K62" s="6" t="str">
@@ -2274,9 +2234,9 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="K63" s="6" t="str">
@@ -2288,9 +2248,9 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="K64" s="6" t="str">
@@ -2302,9 +2262,9 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="K65" s="6" t="str">
@@ -2316,9 +2276,9 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="K66" s="6" t="str">
@@ -2330,9 +2290,9 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A120" si="12">ROW()-2</f>
+        <f t="shared" ref="A67:A120" si="13">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="K67" s="6" t="str">
@@ -2344,191 +2304,191 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="K68" s="6" t="str">
-        <f t="shared" ref="K68:K120" si="13">IF(OR(B68="",B68=B67),"","INSERT INTO m_code(code_nm, code_mei, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
+        <f t="shared" ref="K68:K120" si="14">IF(OR(B68="",B68=B67),"","INSERT INTO m_code(code_nm, code_mei, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
         <v/>
       </c>
       <c r="L68" s="6" t="str">
-        <f t="shared" ref="L68:L120" si="14">IF(E68="","","INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" ref="L68:L120" si="15">IF(E68="","","INSERT INTO m_code_value(code_nm, code_value, code_value_mei, hyoji_jun, criteria, insert_dt, insert_by, update_dt, update_by) VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE(), 'initdata', SYSDATE(), 'initdata');")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="K69" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L69" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="K70" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L70" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="K71" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L71" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="K72" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L72" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="K73" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L73" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="K74" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L74" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="K75" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L75" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="K76" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L76" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="B81" s="3"/>
@@ -2539,569 +2499,569 @@
       <c r="H81" s="4"/>
       <c r="I81" s="3"/>
       <c r="K81" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="B82" s="3"/>
       <c r="D82" s="3"/>
       <c r="K82" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="B83" s="3"/>
       <c r="D83" s="3"/>
       <c r="K83" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
       <c r="B84" s="3"/>
       <c r="D84" s="3"/>
       <c r="K84" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="B85" s="3"/>
       <c r="D85" s="3"/>
       <c r="K85" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="B86" s="3"/>
       <c r="D86" s="3"/>
       <c r="K86" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="B87" s="3"/>
       <c r="D87" s="3"/>
       <c r="K87" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L87" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="K88" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L88" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="K89" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L89" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="K90" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L90" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="K91" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L91" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="K92" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L92" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="K93" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="K94" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="K95" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="K96" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="K102" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L102" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>101</v>
       </c>
       <c r="K103" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L103" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>102</v>
       </c>
       <c r="K104" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L104" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="K105" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L105" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104</v>
       </c>
       <c r="K106" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L106" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="K107" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L107" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>106</v>
       </c>
       <c r="K108" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L108" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="K109" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L109" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="K110" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L110" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109</v>
       </c>
       <c r="K111" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L111" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="K112" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L112" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
       <c r="K113" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L113" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="K114" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L114" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>113</v>
       </c>
       <c r="K115" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L115" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>114</v>
       </c>
       <c r="K116" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L116" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>115</v>
       </c>
       <c r="K117" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L117" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>116</v>
       </c>
       <c r="K118" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L118" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>117</v>
       </c>
       <c r="K119" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L119" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>118</v>
       </c>
       <c r="K120" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L120" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3113,89 +3073,19 @@
     <sortCondition ref="E3:E87"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B81:D82 B85:D88 B91:D91 B97:D99 B102:D102 B119:D119 B105 D105 B121:D1048576 B1:D79">
-    <cfRule type="expression" dxfId="16" priority="18">
+  <conditionalFormatting sqref="B1:D82">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>IF(B1=B1048576,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:D80">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>IF(B80=B79,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:D84">
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>IF(B84=B82,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:D83">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="B83:D84">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>IF(B83=B81,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:D90">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>IF(B89=B88,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:D96">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>IF(B92=B91,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>IF(C100=C99,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF(C101=C100,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>IF(B100=B99,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>IF(B101=B100,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>IF(D100=D99,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(D101=D100,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:D104">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(B103=B102,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(C105=C104,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B118 D106:D118">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(B106=B105,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106:C118">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(C106=C105,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:D120">
+  <conditionalFormatting sqref="B85:D1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(B120=B119,1,0)</formula>
+      <formula>IF(B85=B84,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
